--- a/Fase III - Construcción y Evolución/1. Solicitudes de Cambio/CR05.xlsx
+++ b/Fase III - Construcción y Evolución/1. Solicitudes de Cambio/CR05.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelfi\Downloads\X\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milto\Desktop\6 SEMESTRE\CALIDAD DE SW\CR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0026C75-B828-497E-AB25-46D353681BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8141A7-3214-4A4B-8BBB-36C0EB99E017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7785" xr2:uid="{AAACD53E-982C-4521-B07F-7DC6290E23F5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{AAACD53E-982C-4521-B07F-7DC6290E23F5}"/>
   </bookViews>
   <sheets>
     <sheet name="CR05" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
   <si>
     <t>CHANGE REQUEST</t>
   </si>
@@ -153,12 +153,6 @@
     <t>Dev-Sentinels</t>
   </si>
   <si>
-    <t>alto, medio, bajo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alta, medio,bajo </t>
-  </si>
-  <si>
     <t>CR05</t>
   </si>
   <si>
@@ -169,6 +163,23 @@
   </si>
   <si>
     <t>Implementar el modo oscuro en las secciones de header y footer de la página web, asegurando que sea amigable para usuarios con problemas visuales como la fatiga visual</t>
+  </si>
+  <si>
+    <t>Header y Footer de la página web.</t>
+  </si>
+  <si>
+    <t>Implementación de modo oscuro, mejoras en la accesibilidad visual.</t>
+  </si>
+  <si>
+    <t>medio</t>
+  </si>
+  <si>
+    <t>Implementación Directa en CSS: Modificar CSS para modo oscuro en header y footer. Es rápida y fácil, pero puede no ser completamente accesible y necesita pruebas extensivas.
+Uso de un Framework de Temas: Implementar un framework que soporte temas oscuros y accesibilidad. Ofrece buena accesibilidad y es fácil de mantener, pero requiere configuración adicional y puede ser más complejo.
+Desarrollo de una Solución Personalizada: Crear una solución a medida para modo oscuro y accesibilidad. Ofrece control total y personalización, pero es más costosa y lleva más tiempo.</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -459,7 +470,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -549,6 +560,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -565,6 +580,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>112061</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>100854</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>593914</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>159920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B487798A-DE57-DD6A-1B1B-44BE97075C56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1109385" y="6241678"/>
+          <a:ext cx="6981264" cy="630566"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -886,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F84A08-0160-4953-9528-DB07A5F993CD}">
   <dimension ref="B1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="103" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,7 +982,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
@@ -963,7 +1027,7 @@
         <v>23</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
@@ -980,7 +1044,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
@@ -1001,7 +1065,7 @@
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="C15" s="26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
@@ -1061,9 +1125,15 @@
       <c r="C20" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="8"/>
+      <c r="D20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="10">
+        <v>45510</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="G20" s="8"/>
       <c r="H20" s="7"/>
     </row>
@@ -1072,9 +1142,15 @@
       <c r="C21" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="8"/>
+      <c r="D21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="10">
+        <v>45517</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="G21" s="8"/>
       <c r="H21" s="7"/>
     </row>
@@ -1083,9 +1159,15 @@
       <c r="C22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
+      <c r="D22" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="10">
+        <v>45517</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="G22" s="8"/>
       <c r="H22" s="7"/>
     </row>
@@ -1212,8 +1294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33198599-D7F8-440A-9813-85D60D291D95}">
   <dimension ref="B1:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1243,7 +1325,9 @@
       <c r="F3" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="19"/>
+      <c r="G3" s="19">
+        <v>5</v>
+      </c>
       <c r="H3" s="7"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
@@ -1251,7 +1335,9 @@
       <c r="F4" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="20"/>
+      <c r="G4" s="20" t="s">
+        <v>38</v>
+      </c>
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -1259,7 +1345,9 @@
       <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="20"/>
+      <c r="G5" s="44">
+        <v>45517</v>
+      </c>
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -1271,7 +1359,9 @@
       <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="37"/>
+      <c r="D7" s="37" t="s">
+        <v>36</v>
+      </c>
       <c r="E7" s="37"/>
       <c r="F7" s="37"/>
       <c r="G7" s="37"/>
@@ -1294,7 +1384,9 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
-      <c r="C10" s="38"/>
+      <c r="C10" s="45" t="s">
+        <v>45</v>
+      </c>
       <c r="D10" s="39"/>
       <c r="E10" s="39"/>
       <c r="F10" s="39"/>
@@ -1328,7 +1420,7 @@
       <c r="G13" s="40"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="41"/>
       <c r="D14" s="42"/>
@@ -1363,8 +1455,12 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="34"/>
+      <c r="C18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>43</v>
+      </c>
       <c r="E18" s="35"/>
       <c r="F18" s="35"/>
       <c r="G18" s="36"/>
@@ -1409,7 +1505,7 @@
         <v>32</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H23" s="7"/>
     </row>
@@ -1430,7 +1526,7 @@
         <v>34</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H26" s="7"/>
     </row>
@@ -1516,5 +1612,6 @@
     <mergeCell ref="D21:G21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Fase III - Construcción y Evolución/1. Solicitudes de Cambio/CR05.xlsx
+++ b/Fase III - Construcción y Evolución/1. Solicitudes de Cambio/CR05.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milto\Desktop\6 SEMESTRE\CALIDAD DE SW\CR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Jonathan\6to semestre\Calidad de SW\Proyecto\BrailleTech\Fase III - Construcción y Evolución\1. Solicitudes de Cambio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8141A7-3214-4A4B-8BBB-36C0EB99E017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B19243-E48F-4DF8-801A-F0EE5C0D9836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{AAACD53E-982C-4521-B07F-7DC6290E23F5}"/>
+    <workbookView xWindow="2304" yWindow="720" windowWidth="11712" windowHeight="12240" xr2:uid="{AAACD53E-982C-4521-B07F-7DC6290E23F5}"/>
   </bookViews>
   <sheets>
     <sheet name="CR05" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -186,7 +184,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -504,6 +502,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -544,7 +543,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -552,6 +551,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -560,10 +562,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -950,21 +948,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F84A08-0160-4953-9528-DB07A5F993CD}">
   <dimension ref="B1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="103" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="103" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="5.5703125" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.5703125" customWidth="1"/>
-    <col min="5" max="7" width="20.140625" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="5.59765625" customWidth="1"/>
+    <col min="3" max="3" width="36.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.59765625" customWidth="1"/>
+    <col min="5" max="7" width="20.09765625" customWidth="1"/>
+    <col min="8" max="8" width="5.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:8" ht="15">
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -973,7 +971,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="18.75">
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
         <v>0</v>
@@ -985,113 +983,115 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8">
       <c r="B4" s="4"/>
       <c r="F4" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H4" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="15">
       <c r="B5" s="4"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="15">
       <c r="B6" s="4"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="15">
       <c r="B7" s="4"/>
       <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15">
       <c r="B8" s="4"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" ht="15">
       <c r="B9" s="4"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8">
       <c r="B10" s="4"/>
       <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" ht="15">
       <c r="B11" s="4"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" ht="15">
       <c r="B12" s="4"/>
       <c r="C12" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" ht="15">
       <c r="B13" s="4"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8">
       <c r="B14" s="4"/>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8">
       <c r="B15" s="4"/>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="29"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8">
       <c r="B16" s="4"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="31"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="32"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" ht="15">
       <c r="B17" s="4"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8">
       <c r="B18" s="4"/>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="33"/>
+      <c r="D18" s="34"/>
       <c r="E18" s="8" t="s">
         <v>6</v>
       </c>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" ht="15">
       <c r="B19" s="4"/>
       <c r="C19" s="8" t="s">
         <v>9</v>
@@ -1120,7 +1120,7 @@
       <c r="G19" s="8"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" ht="15">
       <c r="B20" s="4"/>
       <c r="C20" s="8" t="s">
         <v>11</v>
@@ -1132,12 +1132,12 @@
         <v>45510</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" ht="15">
       <c r="B21" s="4"/>
       <c r="C21" s="8" t="s">
         <v>12</v>
@@ -1149,12 +1149,12 @@
         <v>45517</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8">
       <c r="B22" s="4"/>
       <c r="C22" s="8" t="s">
         <v>13</v>
@@ -1166,12 +1166,12 @@
         <v>45517</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" ht="15">
       <c r="B23" s="4"/>
       <c r="C23" s="8" t="s">
         <v>14</v>
@@ -1182,7 +1182,7 @@
       <c r="G23" s="12"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" ht="15">
       <c r="B24" s="4"/>
       <c r="C24" s="8" t="s">
         <v>15</v>
@@ -1193,7 +1193,7 @@
       <c r="G24" s="12"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" ht="15">
       <c r="B25" s="4"/>
       <c r="C25" s="8" t="s">
         <v>16</v>
@@ -1204,7 +1204,7 @@
       <c r="G25" s="12"/>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" ht="15">
       <c r="B26" s="4"/>
       <c r="C26" s="8" t="s">
         <v>17</v>
@@ -1215,7 +1215,7 @@
       <c r="G26" s="12"/>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" ht="15">
       <c r="B27" s="4"/>
       <c r="C27" s="8" t="s">
         <v>18</v>
@@ -1226,7 +1226,7 @@
       <c r="G27" s="12"/>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" ht="15">
       <c r="B28" s="4"/>
       <c r="C28" s="8" t="s">
         <v>19</v>
@@ -1237,18 +1237,18 @@
       <c r="G28" s="12"/>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" ht="15">
       <c r="B29" s="4"/>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" ht="15">
       <c r="B30" s="4"/>
       <c r="C30" t="s">
         <v>20</v>
       </c>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8">
       <c r="B31" s="4"/>
       <c r="C31" s="13" t="s">
         <v>21</v>
@@ -1259,16 +1259,16 @@
       <c r="G31" s="13"/>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8">
       <c r="B32" s="4"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="36"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="37"/>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" ht="14.4" thickBot="1">
       <c r="B33" s="14"/>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
@@ -1298,17 +1298,17 @@
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="3.59765625" customWidth="1"/>
     <col min="3" max="3" width="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.8984375" customWidth="1"/>
+    <col min="6" max="6" width="22.09765625" customWidth="1"/>
+    <col min="8" max="8" width="7.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:8" ht="15">
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1317,7 +1317,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="17.399999999999999">
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
         <v>24</v>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="15">
       <c r="B4" s="4"/>
       <c r="F4" t="s">
         <v>26</v>
@@ -1340,38 +1340,38 @@
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="15">
       <c r="B5" s="4"/>
       <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="44">
+      <c r="G5" s="25">
         <v>45517</v>
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="15">
       <c r="B6" s="4"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="15">
       <c r="B7" s="4"/>
       <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15">
       <c r="B8" s="4"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8">
       <c r="B9" s="4"/>
       <c r="C9" s="21" t="s">
         <v>28</v>
@@ -1382,124 +1382,124 @@
       <c r="G9" s="23"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8">
       <c r="B10" s="4"/>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="41"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8">
       <c r="B11" s="4"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="40"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="41"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8">
       <c r="B12" s="4"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="40"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="41"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8">
       <c r="B13" s="4"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="40"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="41"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="2:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" ht="74.25" customHeight="1">
       <c r="B14" s="4"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="45"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" ht="15">
       <c r="B15" s="4"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" ht="15">
       <c r="B16" s="4"/>
       <c r="C16" t="s">
         <v>29</v>
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" ht="15">
       <c r="B17" s="4"/>
       <c r="C17" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8">
       <c r="B18" s="4"/>
       <c r="C18" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="37"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" ht="15">
       <c r="B19" s="4"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="37"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" ht="15">
       <c r="B20" s="4"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="37"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" ht="15">
       <c r="B21" s="4"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="36"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" ht="15">
       <c r="B22" s="4"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" ht="15">
       <c r="B23" s="4"/>
       <c r="C23" t="s">
         <v>32</v>
@@ -1509,18 +1509,18 @@
       </c>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" ht="15">
       <c r="B24" s="4"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" ht="15">
       <c r="B25" s="4"/>
       <c r="C25" t="s">
         <v>33</v>
       </c>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" ht="15">
       <c r="B26" s="4"/>
       <c r="C26" t="s">
         <v>34</v>
@@ -1530,11 +1530,11 @@
       </c>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" ht="15">
       <c r="B27" s="4"/>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8">
       <c r="B28" s="4"/>
       <c r="C28" s="21" t="s">
         <v>35</v>
@@ -1545,52 +1545,52 @@
       <c r="G28" s="23"/>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8">
       <c r="B29" s="4"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="40"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="41"/>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8">
       <c r="B30" s="4"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="40"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="41"/>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8">
       <c r="B31" s="4"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="40"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="41"/>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8">
       <c r="B32" s="4"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="40"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="41"/>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8">
       <c r="B33" s="4"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="45"/>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" ht="15.75" thickBot="1">
       <c r="B34" s="14"/>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
